--- a/plugins/air_temp_humi/i2c_board/hw2.0/tme.eu_seznam_soucastek.xlsx
+++ b/plugins/air_temp_humi/i2c_board/hw2.0/tme.eu_seznam_soucastek.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pihrt\Documents\GitHub\OSPy-plugins\plugins\air_temp_humi\static\i2c_board\hw2.0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\OSPy-plugins\plugins\air_temp_humi\i2c_board\hw2.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="81">
   <si>
     <t>Seznam součástek</t>
   </si>
@@ -254,7 +254,19 @@
     <t>Celkem cca</t>
   </si>
   <si>
-    <t> 199,-</t>
+    <t>10k</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/cz/details/1_4w10k/uhlikove-rezistory-tht-1-4w/royal-ohm/cfr0w4j0103a50/</t>
+  </si>
+  <si>
+    <t>0,3,-</t>
+  </si>
+  <si>
+    <t>200,-</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R16</t>
   </si>
 </sst>
 </file>
@@ -310,7 +322,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -322,11 +334,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -609,10 +624,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B20"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -645,325 +660,343 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>7</v>
+      <c r="A4" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>76</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>10</v>
+        <v>77</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>12</v>
+        <v>6</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="6">
-        <v>220</v>
+        <v>15</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>24</v>
+        <v>20</v>
+      </c>
+      <c r="B8" s="5">
+        <v>220</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>33</v>
+        <v>27</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>37</v>
+        <v>32</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>40</v>
+        <v>36</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>44</v>
+        <v>39</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>51</v>
+        <v>46</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>54</v>
+      <c r="B16" s="5" t="s">
+        <v>51</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>58</v>
+        <v>50</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>54</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>62</v>
+        <v>57</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>58</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>67</v>
+        <v>61</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>62</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B21" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C21" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="1:5" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:5" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="2" t="s">
-        <v>76</v>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="2" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A22:D22"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1" display="http://www.tme.eu/cz/details/mf0204fte52-1k/metalizovane-rezistory-tht-04w/yageo/mf0204fte52-1kl/"/>
-    <hyperlink ref="C5" r:id="rId2" display="http://www.tme.eu/cz/details/mf0204fte52-4k7/metalizovane-rezistory-tht-04w/yageo/mf0204fte52-4k7l/"/>
-    <hyperlink ref="C6" r:id="rId3" display="http://www.tme.eu/cz/details/b59990c0120a070/termistory-ptc/epcos/"/>
-    <hyperlink ref="C7" r:id="rId4" display="http://www.tme.eu/cz/details/m0.4w-220r/metalizovane-rezistory-tht-04w/royal-ohm/mff04ff2200a5/"/>
-    <hyperlink ref="C8" r:id="rId5" display="http://www.tme.eu/cz/details/l-934hd/led-diody-tht-3mm/kingbright-electronic/"/>
-    <hyperlink ref="C9" r:id="rId6" display="http://www.tme.eu/cz/details/ba159/univerzalni-diody-tht/dc-components/"/>
-    <hyperlink ref="C10" r:id="rId7" display="http://www.tme.eu/cz/details/cc-22/keramicke-kondenzatory-tht-50v/sr-passives/"/>
-    <hyperlink ref="C11" r:id="rId8" display="http://www.tme.eu/cz/details/cm-100n/kondenzatory-mlcc-tht/sr-passives/"/>
-    <hyperlink ref="C12" r:id="rId9" display="http://www.tme.eu/cz/details/16.00m-hc49-s/krystalove-rezonatory-tht/yic/"/>
-    <hyperlink ref="C13" r:id="rId10" display="https://www.tme.eu/cz/details/ce-1000_16pht/elektrolyticke-kondenzatory-tht-105c/sr-passives/"/>
-    <hyperlink ref="C14" r:id="rId11" display="https://www.tme.eu/cz/details/tact-64k-f/mikrospinace-tact/ninigi/"/>
-    <hyperlink ref="C15" r:id="rId12" display="http://www.tme.eu/cz/details/atmega328-pu/mikroprocesory-atmel-avr-tht/microchip-atmel/"/>
-    <hyperlink ref="C16" r:id="rId13" display="http://www.tme.eu/cz/details/gold-28p-w/presne-patice/connfly/ds1001-01-28bt1nsf6s/"/>
-    <hyperlink ref="C17" r:id="rId14" display="https://www.tme.eu/cz/details/mlss100-3-d/konektory-ce100-raster-254mm/pancon/"/>
-    <hyperlink ref="C18" r:id="rId15" display="http://www.tme.eu/cz/details/zl201-02g/konektory-hrebinky/connfly/ds1021-1_2sf1-1/"/>
-    <hyperlink ref="C19" r:id="rId16" display="http://www.tme.eu/cz/details/280371-1/signalove-konektory-raster-254mm/te-connectivity/"/>
-    <hyperlink ref="C20" r:id="rId17" display="http://www.tme.eu/cz/details/dg126-5.0-3p14/svorkovnice-do-plosnych-spoju/degson-electronics/dg126-50-03p-14-00ah/"/>
+    <hyperlink ref="C5" r:id="rId1" display="http://www.tme.eu/cz/details/mf0204fte52-1k/metalizovane-rezistory-tht-04w/yageo/mf0204fte52-1kl/"/>
+    <hyperlink ref="C6" r:id="rId2" display="http://www.tme.eu/cz/details/mf0204fte52-4k7/metalizovane-rezistory-tht-04w/yageo/mf0204fte52-4k7l/"/>
+    <hyperlink ref="C7" r:id="rId3" display="http://www.tme.eu/cz/details/b59990c0120a070/termistory-ptc/epcos/"/>
+    <hyperlink ref="C8" r:id="rId4" display="http://www.tme.eu/cz/details/m0.4w-220r/metalizovane-rezistory-tht-04w/royal-ohm/mff04ff2200a5/"/>
+    <hyperlink ref="C9" r:id="rId5" display="http://www.tme.eu/cz/details/l-934hd/led-diody-tht-3mm/kingbright-electronic/"/>
+    <hyperlink ref="C10" r:id="rId6" display="http://www.tme.eu/cz/details/ba159/univerzalni-diody-tht/dc-components/"/>
+    <hyperlink ref="C11" r:id="rId7" display="http://www.tme.eu/cz/details/cc-22/keramicke-kondenzatory-tht-50v/sr-passives/"/>
+    <hyperlink ref="C12" r:id="rId8" display="http://www.tme.eu/cz/details/cm-100n/kondenzatory-mlcc-tht/sr-passives/"/>
+    <hyperlink ref="C13" r:id="rId9" display="http://www.tme.eu/cz/details/16.00m-hc49-s/krystalove-rezonatory-tht/yic/"/>
+    <hyperlink ref="C14" r:id="rId10" display="https://www.tme.eu/cz/details/ce-1000_16pht/elektrolyticke-kondenzatory-tht-105c/sr-passives/"/>
+    <hyperlink ref="C15" r:id="rId11" display="https://www.tme.eu/cz/details/tact-64k-f/mikrospinace-tact/ninigi/"/>
+    <hyperlink ref="C16" r:id="rId12" display="http://www.tme.eu/cz/details/atmega328-pu/mikroprocesory-atmel-avr-tht/microchip-atmel/"/>
+    <hyperlink ref="C17" r:id="rId13" display="http://www.tme.eu/cz/details/gold-28p-w/presne-patice/connfly/ds1001-01-28bt1nsf6s/"/>
+    <hyperlink ref="C18" r:id="rId14" display="https://www.tme.eu/cz/details/mlss100-3-d/konektory-ce100-raster-254mm/pancon/"/>
+    <hyperlink ref="C19" r:id="rId15" display="http://www.tme.eu/cz/details/zl201-02g/konektory-hrebinky/connfly/ds1021-1_2sf1-1/"/>
+    <hyperlink ref="C20" r:id="rId16" display="http://www.tme.eu/cz/details/280371-1/signalove-konektory-raster-254mm/te-connectivity/"/>
+    <hyperlink ref="C21" r:id="rId17" display="http://www.tme.eu/cz/details/dg126-5.0-3p14/svorkovnice-do-plosnych-spoju/degson-electronics/dg126-50-03p-14-00ah/"/>
+    <hyperlink ref="C4" r:id="rId18"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
